--- a/outputs-HGR-r202-archive/o__Tissierellales.xlsx
+++ b/outputs-HGR-r202-archive/o__Tissierellales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,26 +519,26 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46257.fa</t>
+          <t>even_MAG-GUT47840.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7536038566931962</v>
+        <v>0.9950079648239014</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003767294941136923</v>
+        <v>2.45729303589972e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1956343371658139</v>
+        <v>0.003850736672401021</v>
       </c>
       <c r="E3" t="n">
-        <v>9.047905701185539e-14</v>
+        <v>2.21999467764649e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04699451119976265</v>
+        <v>0.001116725573316204</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7536038566931962</v>
+        <v>0.9950079648239014</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -547,33 +547,33 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>f__Peptoniphilaceae(reject)</t>
+          <t>f__Peptoniphilaceae</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5258.fa</t>
+          <t>even_MAG-GUT49571.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9962836617954696</v>
+        <v>0.5190777206823617</v>
       </c>
       <c r="C4" t="n">
-        <v>2.476876221665816e-06</v>
+        <v>0.2904083968279392</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0006093971880639737</v>
+        <v>0.0008557517582532601</v>
       </c>
       <c r="E4" t="n">
-        <v>2.219952213447342e-14</v>
+        <v>5.193396202267525e-13</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00310446414022254</v>
+        <v>0.1896581307309267</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9962836617954696</v>
+        <v>0.5190777206823617</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -582,68 +582,68 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>f__Peptoniphilaceae</t>
+          <t>f__Peptoniphilaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53617.fa</t>
+          <t>even_MAG-GUT5258.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1895421429487937</v>
+        <v>0.9962836617954696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3120716722464417</v>
+        <v>2.476876221665816e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09787677602206254</v>
+        <v>0.0006093971880639737</v>
       </c>
       <c r="E5" t="n">
-        <v>2.893217115773825e-13</v>
+        <v>2.219952213447342e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4005094087824126</v>
+        <v>0.00310446414022254</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4005094087824126</v>
+        <v>0.9962836617954696</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>f__Tissierellaceae</t>
+          <t>f__Peptoniphilaceae</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>f__Tissierellaceae(reject)</t>
+          <t>f__Peptoniphilaceae</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7066.fa</t>
+          <t>even_MAG-GUT7064.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9963811762918342</v>
+        <v>0.9979064276140123</v>
       </c>
       <c r="C6" t="n">
-        <v>7.950957184378886e-06</v>
+        <v>8.073351499961667e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002077832345509001</v>
+        <v>0.001722131690025905</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220071183518045e-14</v>
+        <v>2.219857605396516e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00153304040545024</v>
+        <v>0.0003633673444395156</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9963811762918342</v>
+        <v>0.9979064276140123</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -659,26 +659,26 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91256.fa</t>
+          <t>even_MAG-GUT7291.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999973867881425</v>
+        <v>0.9956913986028839</v>
       </c>
       <c r="C7" t="n">
-        <v>4.165575041322913e-07</v>
+        <v>8.239887700911545e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>1.754568398919589e-06</v>
+        <v>0.004177469353394843</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220445943010059e-14</v>
+        <v>2.219872620794984e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>4.420859322658218e-07</v>
+        <v>0.0001303080549290625</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999973867881425</v>
+        <v>0.9956913986028839</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -694,61 +694,61 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91291.fa</t>
+          <t>even_MAG-GUT88709.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9990760963750309</v>
+        <v>0.4741841439919613</v>
       </c>
       <c r="C8" t="n">
-        <v>5.922285073790967e-06</v>
+        <v>2.73130476736386e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0009125964393434706</v>
+        <v>0.5257728302963622</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220122238265562e-14</v>
+        <v>2.28873607209728e-10</v>
       </c>
       <c r="F8" t="n">
-        <v>5.38490052976206e-06</v>
+        <v>4.029417803531819e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9990760963750309</v>
+        <v>0.5257728302963622</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>f__Peptoniphilaceae</t>
+          <t>f__Sporanaerobacteraceae</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>f__Peptoniphilaceae</t>
+          <t>f__Sporanaerobacteraceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91631.fa</t>
+          <t>even_MAG-GUT91256.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9960809291562052</v>
+        <v>0.9999973867881425</v>
       </c>
       <c r="C9" t="n">
-        <v>1.506028329016479e-06</v>
+        <v>4.165575041322913e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003905708854520947</v>
+        <v>1.754568398919589e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>2.219845829901428e-14</v>
+        <v>2.220445943010059e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>1.185596092277394e-05</v>
+        <v>4.420859322658218e-07</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9960809291562052</v>
+        <v>0.9999973867881425</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -764,26 +764,26 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91672.fa</t>
+          <t>even_MAG-GUT91291.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999981076734737</v>
+        <v>0.9990760963750309</v>
       </c>
       <c r="C10" t="n">
-        <v>9.347136063404921e-08</v>
+        <v>5.922285073790967e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>1.667058982821181e-06</v>
+        <v>0.0009125964393434706</v>
       </c>
       <c r="E10" t="n">
-        <v>2.22044546734056e-14</v>
+        <v>2.220122238265562e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>1.317961607973203e-07</v>
+        <v>5.38490052976206e-06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9999981076734737</v>
+        <v>0.9990760963750309</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -799,35 +799,175 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT91328.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9964138112626825</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.154560353992336e-06</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.003448180833658645</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.219875564631368e-14</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0001368533432825453</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9964138112626825</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91345.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4257133207930784</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2459000403154091</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01272325994308441</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.207746760317836e-12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3156633789472204</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4257133207930784</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91672.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9999981076734737</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.347136063404921e-08</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.667058982821181e-06</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.22044546734056e-14</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.317961607973203e-07</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9999981076734737</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT91675.fa</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B14" t="n">
         <v>0.9999994315856907</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C14" t="n">
         <v>8.294075811140223e-08</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D14" t="n">
         <v>3.715505114134382e-07</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E14" t="n">
         <v>2.220446008079375e-14</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F14" t="n">
         <v>1.139230174586238e-07</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G14" t="n">
         <v>0.9999994315856907</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91866.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.06390333565106432</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2989445139074004</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01008423145424333</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.904225174202106e-13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6270679189869015</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6270679189869015</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>f__Tissierellaceae</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>f__Tissierellaceae(reject)</t>
         </is>
       </c>
     </row>
